--- a/Webpagetest.xlsx
+++ b/Webpagetest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIL\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDAF3E8-BE52-49C4-AABC-B1512BEE402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A67C75-1F75-4624-ADFB-DA3E1E49AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B215D835-EA6A-4894-A457-953B6DF1DD9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B215D835-EA6A-4894-A457-953B6DF1DD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="module1" sheetId="5" r:id="rId1"/>
@@ -2666,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079ACCF1-2E3C-42FD-8A8F-192C3F783086}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -2799,7 +2799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5F5349-C7FF-48E5-A257-C23989B6CB21}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Webpagetest.xlsx
+++ b/Webpagetest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIL\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A67C75-1F75-4624-ADFB-DA3E1E49AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4AC00-C3A9-4ACE-B718-FF131A467D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B215D835-EA6A-4894-A457-953B6DF1DD9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B215D835-EA6A-4894-A457-953B6DF1DD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="module1" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -110,9 +110,6 @@
   <si>
     <t>Check whether menus in the 
 homepage is readable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Icons does'nt shows
@@ -202,13 +199,6 @@
 </t>
   </si>
   <si>
-    <t>Check whether last name field accepts only charecters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether first name field accepts charecters
-</t>
-  </si>
-  <si>
     <t>1.Input first name using charecters
 2.Input second name using charecters
 3.Click create button</t>
@@ -219,13 +209,149 @@
   <si>
     <t>First name and second 
 name field accepts charecters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether first name and last name field accepts charecters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether full name and last name field  accepts the combination of charecters and integers
+</t>
+  </si>
+  <si>
+    <t>1.Go to create account page
+2.Enter name with combination of charecters and integers
+3.click on create  button</t>
+  </si>
+  <si>
+    <t>Should not accepts numbers with charecters</t>
+  </si>
+  <si>
+    <t>First name and second 
+name field accepts the combination of charecters and  numbers</t>
+  </si>
+  <si>
+    <t>Check whether the firstname
+ and lastname accepts only integers</t>
+  </si>
+  <si>
+    <t>1.Go to create account page
+2.Enter integers in firstname field
+3.Enter integers in the secondname field
+4.click on create  button</t>
+  </si>
+  <si>
+    <t>The firstname and lastname
+ field should not accepts integers</t>
+  </si>
+  <si>
+    <t>First name and lastname
+ field accepts integers</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>first name:dilna 
+second name:das</t>
+  </si>
+  <si>
+    <t>first name:dilna12
+second name:das22</t>
+  </si>
+  <si>
+    <t>first name:1234456
+second name:7895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether create account button is clickable
+</t>
+  </si>
+  <si>
+    <t>Check whether proper error message will appear while click on create button without entering any inputs</t>
+  </si>
+  <si>
+    <t>1.Click on create account</t>
+  </si>
+  <si>
+    <t>An error message should
+displayed</t>
+  </si>
+  <si>
+    <t>Error message is displayed</t>
+  </si>
+  <si>
+    <t>1.Enter inputs in first name and lastname field
+2.Click on create account button</t>
+  </si>
+  <si>
+    <t>Create account button should clickable</t>
+  </si>
+  <si>
+    <t>Create account button is
+ clickable</t>
+  </si>
+  <si>
+    <t>Check whether account details
+ are shown</t>
+  </si>
+  <si>
+    <t>Check whether all links in the
+ homepage are clickable</t>
+  </si>
+  <si>
+    <t>Click on links present in the 
+home page</t>
+  </si>
+  <si>
+    <t>Links should clickable</t>
+  </si>
+  <si>
+    <t>All links in the homepage 
+ are clickable</t>
+  </si>
+  <si>
+    <t>FAM_SHP_05</t>
+  </si>
+  <si>
+    <t>Check whether contact number 
+included in the homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact number should present in the homepage </t>
+  </si>
+  <si>
+    <t>Contact number is not
+ present</t>
+  </si>
+  <si>
+    <t>FAM_SHP_06</t>
+  </si>
+  <si>
+    <t>FAM_SHP_07</t>
+  </si>
+  <si>
+    <t>Check whether mailid of the 
+site is shown</t>
+  </si>
+  <si>
+    <t>Mailid should be available</t>
+  </si>
+  <si>
+    <t>Mailid is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                       FAMILY FASHION</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +417,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +445,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -368,12 +508,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -398,11 +575,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2664,132 +2860,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079ACCF1-2E3C-42FD-8A8F-192C3F783086}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:7" s="13" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E5D28D00-4456-4721-9CE3-19F84755A21E}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{E5D28D00-4456-4721-9CE3-19F84755A21E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2797,32 +3137,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5F5349-C7FF-48E5-A257-C23989B6CB21}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="2" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -2832,181 +3173,240 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="G19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3049,63 +3449,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3207,10 +3607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3222,7 +3622,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -3230,7 +3630,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3268,13 +3668,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">

--- a/Webpagetest.xlsx
+++ b/Webpagetest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DIL\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4AC00-C3A9-4ACE-B718-FF131A467D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40809273-C554-4219-A5BC-0D24F27D3BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B215D835-EA6A-4894-A457-953B6DF1DD9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{B215D835-EA6A-4894-A457-953B6DF1DD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="module1" sheetId="5" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
-  <si>
-    <t>PROJECT NAME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="231">
   <si>
     <t>MODULE NAME</t>
   </si>
@@ -50,10 +47,6 @@
     <t>DEFECT DISTRIBUTION</t>
   </si>
   <si>
-    <t xml:space="preserve">Module_number
-</t>
-  </si>
-  <si>
     <t>Module_name</t>
   </si>
   <si>
@@ -82,9 +75,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                     FAMILY FASHION</t>
   </si>
   <si>
     <t>FAM_SHP_01</t>
@@ -138,15 +128,6 @@
     <t>https://www.familyfashion.in</t>
   </si>
   <si>
-    <t xml:space="preserve">Identified by:  
-Reported by:
-</t>
-  </si>
-  <si>
-    <t>Date:
-Environment details:</t>
-  </si>
-  <si>
     <t>Bug id</t>
   </si>
   <si>
@@ -178,18 +159,8 @@
 3.Place the cursor on cart icon</t>
   </si>
   <si>
-    <t>module1</t>
-  </si>
-  <si>
-    <t>module2</t>
-  </si>
-  <si>
     <t>Icon should shows corresponding
  names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiltles in the homepage have not any spell mistake
-</t>
   </si>
   <si>
     <t>Readable</t>
@@ -292,10 +263,6 @@
  clickable</t>
   </si>
   <si>
-    <t>Check whether account details
- are shown</t>
-  </si>
-  <si>
     <t>Check whether all links in the
  homepage are clickable</t>
   </si>
@@ -321,10 +288,6 @@
     <t xml:space="preserve">Contact number should present in the homepage </t>
   </si>
   <si>
-    <t>Contact number is not
- present</t>
-  </si>
-  <si>
     <t>FAM_SHP_06</t>
   </si>
   <si>
@@ -345,13 +308,567 @@
   </si>
   <si>
     <t>LOGIN</t>
+  </si>
+  <si>
+    <t>Check whether an eye icon added to the pasword field and confirm the password field</t>
+  </si>
+  <si>
+    <t>An eye icon shuold present
+ near the password field</t>
+  </si>
+  <si>
+    <t>Eye icon not present</t>
+  </si>
+  <si>
+    <t>Check whether captcha is added
+ to the form or not</t>
+  </si>
+  <si>
+    <t>Captcha should present for
+ security reason</t>
+  </si>
+  <si>
+    <t>Test description</t>
+  </si>
+  <si>
+    <t>Check whether a list is appear when the cursor is placed on the email text field</t>
+  </si>
+  <si>
+    <t>A list should appear while
+ cursor is placed</t>
+  </si>
+  <si>
+    <t>List is displayed</t>
+  </si>
+  <si>
+    <t>Input data is accepte</t>
+  </si>
+  <si>
+    <t>1.Place cursor on emailid field
+2.select the id from display box</t>
+  </si>
+  <si>
+    <t>Should able to select the id from display box</t>
+  </si>
+  <si>
+    <t>Able to select</t>
+  </si>
+  <si>
+    <t>Check whether we can enter the 
+password in password field</t>
+  </si>
+  <si>
+    <t>1.Click on password field
+2.Enter password (input at the time of account creation)</t>
+  </si>
+  <si>
+    <t>Password field should accepts
+ the password</t>
+  </si>
+  <si>
+    <t>Password accepted</t>
+  </si>
+  <si>
+    <t>Check whether an error message
+ is displayed when input valid emailid and invalid password</t>
+  </si>
+  <si>
+    <t>Should display error message</t>
+  </si>
+  <si>
+    <t>Error message is dislayed</t>
+  </si>
+  <si>
+    <t>Check whether an error message
+ is displayed when input invalid email id and valid password</t>
+  </si>
+  <si>
+    <t>FAM_SHP_08</t>
+  </si>
+  <si>
+    <t>FAM_SHP_09</t>
+  </si>
+  <si>
+    <t>FAM_SHP_10</t>
+  </si>
+  <si>
+    <t>FAM_SHP_11</t>
+  </si>
+  <si>
+    <t>FAM_SHP_12</t>
+  </si>
+  <si>
+    <t>FAM_SHP_13</t>
+  </si>
+  <si>
+    <t>FAM_SHP_14</t>
+  </si>
+  <si>
+    <t>FAM_SHP_15</t>
+  </si>
+  <si>
+    <t>FAM_SHP_16</t>
+  </si>
+  <si>
+    <t>FAM_SHP_17</t>
+  </si>
+  <si>
+    <t>FAM_SHP_18</t>
+  </si>
+  <si>
+    <t>FAM_SHP_19</t>
+  </si>
+  <si>
+    <t>FAM_SHP_20</t>
+  </si>
+  <si>
+    <t>FAM_SHP_21</t>
+  </si>
+  <si>
+    <t>Verify login page title</t>
+  </si>
+  <si>
+    <t>FAM_SHP_22</t>
+  </si>
+  <si>
+    <t>Check whether forgot password 
+option is available</t>
+  </si>
+  <si>
+    <t>Forgot passord option should
+ present in the login page</t>
+  </si>
+  <si>
+    <t>Forgot password option is
+ available</t>
+  </si>
+  <si>
+    <t>Check whether the cursor should remain in the email text box by default after the login page is open</t>
+  </si>
+  <si>
+    <t>Check whether email field 
+accepts the input</t>
+  </si>
+  <si>
+    <t>Check whether we can select the email from the display box(email id that we already used for creating account) when cursor is placed on email field</t>
+  </si>
+  <si>
+    <t>1.click on email field
+2.input data</t>
+  </si>
+  <si>
+    <t>1.click login button
+2.place the cursor on email field</t>
+  </si>
+  <si>
+    <t>1.Click on email field
+2.input valid email
+3.click on password field
+4.Enter invalid password
+5.Click on sign in button</t>
+  </si>
+  <si>
+    <t>1.click on email field
+2.enter invalid email
+3.Click on password field
+4.Enter valid password
+5.Click sign in button</t>
+  </si>
+  <si>
+    <t>The email field should 
+accepts the input data</t>
+  </si>
+  <si>
+    <t>1.Click on sign in button</t>
+  </si>
+  <si>
+    <t>Check whether the allignment of the text fields in the sign in page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether the text fields in the sign in page is properly alligned </t>
+  </si>
+  <si>
+    <t>FAM_SHP_23</t>
+  </si>
+  <si>
+    <t>FAM_SHP_24</t>
+  </si>
+  <si>
+    <t>Check whether the password
+ entered is in encrypted form</t>
+  </si>
+  <si>
+    <t>1.enter email in email text field
+2.enter password in password field</t>
+  </si>
+  <si>
+    <t>Password entered should be in
+ encrypted form</t>
+  </si>
+  <si>
+    <t>Password entered in
+ encrypted form</t>
+  </si>
+  <si>
+    <t>Check whether an error message
+ is display after just entering an email and leaving the password field blank</t>
+  </si>
+  <si>
+    <t>1.enter email in email text field
+2.click sign in button</t>
+  </si>
+  <si>
+    <t>FAM_SHP_25</t>
+  </si>
+  <si>
+    <t>FAM_SHP_26</t>
+  </si>
+  <si>
+    <t>FAM_SHP_27</t>
+  </si>
+  <si>
+    <t>Check whether an error message
+ is display after just entering the password and leaving the email field blank</t>
+  </si>
+  <si>
+    <t>1.enter password in the password field
+2.click on sign in button</t>
+  </si>
+  <si>
+    <t>An error message should
+ display</t>
+  </si>
+  <si>
+    <t>Check whether logged in user 
+doesn't log out by clicking the back arrow on the browser tab</t>
+  </si>
+  <si>
+    <t>1.click back arrow</t>
+  </si>
+  <si>
+    <t>Should not logged out</t>
+  </si>
+  <si>
+    <t>Logout does'n happen</t>
+  </si>
+  <si>
+    <t>Check whether the number of 
+limits of unsuccessful login attempts</t>
+  </si>
+  <si>
+    <t>FAM_SHP_28</t>
+  </si>
+  <si>
+    <t>FAM_SHP_29</t>
+  </si>
+  <si>
+    <t>FAM_SHP_30</t>
+  </si>
+  <si>
+    <t>CREATE ACCOUNT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FAMILY FASHION</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Click on create account link</t>
+  </si>
+  <si>
+    <t>Create account page should
+ open by clicking the create account link</t>
+  </si>
+  <si>
+    <t>Create account page is
+ opened</t>
+  </si>
+  <si>
+    <t>Check whether password added by the user should be protected and encrypted</t>
+  </si>
+  <si>
+    <t>1.click on password field
+2.enter password</t>
+  </si>
+  <si>
+    <t>Password entered should be encrypted</t>
+  </si>
+  <si>
+    <t>Password is encrypted</t>
+  </si>
+  <si>
+    <t>Check by trying to create account with an already registered email address</t>
+  </si>
+  <si>
+    <t>1.Enter an already registered email address</t>
+  </si>
+  <si>
+    <t>Should not registered with already registered mail address</t>
+  </si>
+  <si>
+    <t>Check whether any spelling
+ mistake in create account page</t>
+  </si>
+  <si>
+    <t>Check the allignment of the 
+home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiltles in the homepage should  not have any spell mistake
+</t>
+  </si>
+  <si>
+    <t>Email field shouldn't accepts s
+pace</t>
+  </si>
+  <si>
+    <t>Email field doesn't accepts
+ space</t>
+  </si>
+  <si>
+    <t>Check whether email field accepts space</t>
+  </si>
+  <si>
+    <t>Check whether the sign in session time out duration</t>
+  </si>
+  <si>
+    <t>FAM_SHP_31</t>
+  </si>
+  <si>
+    <t>ORDER MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Check whether user can add a 
+product to cart</t>
+  </si>
+  <si>
+    <t>1.search a priduct
+2.click add to cart button</t>
+  </si>
+  <si>
+    <t>The user should be able to add the
+ item to the cart</t>
+  </si>
+  <si>
+    <t>The user can able to add the 
+item to the cart</t>
+  </si>
+  <si>
+    <t>Check whether user can view their
+ added product in cart</t>
+  </si>
+  <si>
+    <t>Check whether the cart icon is
+ clickable</t>
+  </si>
+  <si>
+    <t>1.click on cart icon</t>
+  </si>
+  <si>
+    <t>Cart icon should be clickable</t>
+  </si>
+  <si>
+    <t>Cart icon is clickable</t>
+  </si>
+  <si>
+    <t>1.Click on cart icon</t>
+  </si>
+  <si>
+    <t>User should be able to view their product in the cart</t>
+  </si>
+  <si>
+    <t>User can able to view their 
+product in cart</t>
+  </si>
+  <si>
+    <t>FAM_SHP_32</t>
+  </si>
+  <si>
+    <t>FAM_SHP_33</t>
+  </si>
+  <si>
+    <t>FAM_SHP_34</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>FAMILY FASION</t>
+  </si>
+  <si>
+    <t>Module_number</t>
+  </si>
+  <si>
+    <t>HOME PAGE</t>
+  </si>
+  <si>
+    <t>CREATE ACCOUNT
+SIGN IN</t>
+  </si>
+  <si>
+    <t>Main heading have spell mistake</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Main heading in the home page shouldn't have any spell kistake</t>
+  </si>
+  <si>
+    <t>First name field and last name 
+field shouldn't accepts integers only</t>
+  </si>
+  <si>
+    <t>First name field an lastname field in create account pagre accepts integers</t>
+  </si>
+  <si>
+    <t>1.click on create account
+2.click on first name field
+3.type only integers 
+4.click on lst name field
+5.type only integers</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>An eye icon should be present near
+ the password field for cofirmation</t>
+  </si>
+  <si>
+    <t>An eye icon is not present near 
+password field</t>
+  </si>
+  <si>
+    <t>Captcha is  present</t>
+  </si>
+  <si>
+    <t>Can't register by using
+ already registered mail address</t>
+  </si>
+  <si>
+    <t>their should not be any spel
+l mistake</t>
+  </si>
+  <si>
+    <t>Theie=r is no spell mistake
+ in this page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identified by:  DILNA DAS
+Reported by:
+</t>
+  </si>
+  <si>
+    <t>Date:30-01-2023
+Environment details:</t>
+  </si>
+  <si>
+    <r>
+      <t>OS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows11</t>
+    </r>
+  </si>
+  <si>
+    <t>Test id</t>
+  </si>
+  <si>
+    <t>DEF_FAM_01</t>
+  </si>
+  <si>
+    <t>DEF_FAM_02</t>
+  </si>
+  <si>
+    <t>DEF_FAM_03</t>
+  </si>
+  <si>
+    <t>DEF_FAM_04</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Contact link is present</t>
+  </si>
+  <si>
+    <t>FAM_SHP_35</t>
+  </si>
+  <si>
+    <t>FAM_SHP_36</t>
+  </si>
+  <si>
+    <t>FAM_SHP_37</t>
+  </si>
+  <si>
+    <t>FAM_SHP_38</t>
+  </si>
+  <si>
+    <t>FAM_SHP_39</t>
+  </si>
+  <si>
+    <t>FAM_SHP_40</t>
+  </si>
+  <si>
+    <t>cursor should remain in the email field by default after the login page is open</t>
+  </si>
+  <si>
+    <t>cursor is not in the email field by default after login page is open</t>
+  </si>
+  <si>
+    <t>DEF_FAM_05</t>
+  </si>
+  <si>
+    <t>Home page should be more 
+attractive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Home page of this site is not
+ attractive</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +942,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,8 +1013,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -545,16 +1137,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -579,6 +1192,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +1282,12 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +1300,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,6 +1316,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4D8E8"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -721,7 +1418,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15904121256366133"/>
+          <c:y val="0.53314457268183946"/>
+          <c:w val="0.66435834593523491"/>
+          <c:h val="6.8493150684931503E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -755,7 +1462,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>PROJECT NAME</c:v>
+                    <c:v>FAMILY FASION</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -771,7 +1478,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +1518,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>PROJECT NAME</c:v>
+                    <c:v>FAMILY FASION</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -955,7 +1662,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1064,11 +1771,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1131,52 +1838,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'defect distribution'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MODULE NAME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'defect distribution'!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17E8-4C1F-9E52-1C29B0A74666}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
               <c:f>'defect distribution'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1187,16 +1848,67 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'defect distribution'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Module 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Module 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Module 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'defect distribution'!$B$3:$B$5</c:f>
@@ -1204,20 +1916,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-17E8-4C1F-9E52-1C29B0A74666}"/>
+              <c16:uniqueId val="{00000000-FF65-416D-A7AD-A0E331198BF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1231,17 +1943,18 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1065896352"/>
-        <c:axId val="1065896768"/>
+        <c:axId val="1221809263"/>
+        <c:axId val="1221813007"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1065896352"/>
+        <c:axId val="1221809263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1260,8 +1973,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1272,7 +1985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1065896768"/>
+        <c:crossAx val="1221813007"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1280,7 +1993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1065896768"/>
+        <c:axId val="1221813007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,8 +2032,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1331,7 +2044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1065896352"/>
+        <c:crossAx val="1221809263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1343,37 +2056,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1993,18 +2675,18 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="289">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2012,8 +2694,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2023,7 +2705,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2039,7 +2721,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2047,8 +2729,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2082,36 +2764,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2123,30 +2831,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2163,20 +2874,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2186,7 +2895,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2195,14 +2904,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2211,17 +2919,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2230,17 +2938,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2249,21 +2956,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2282,17 +2983,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2301,17 +3001,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2320,17 +3020,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2340,8 +3039,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2351,7 +3050,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2359,7 +3058,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2368,8 +3067,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2379,17 +3078,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2399,27 +3098,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2429,8 +3127,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2440,20 +3138,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2463,8 +3160,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2474,31 +3171,80 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>640080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DDD6FE4-C7BE-ACDF-A895-05E1E4027737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8884920" y="2179320"/>
+          <a:ext cx="2461260" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2526,23 +3272,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C5BD7C-1A8E-CB10-EB46-DAF30CE5C2CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A09EDCC-7DB7-B2D2-B57C-AF01C45998EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079ACCF1-2E3C-42FD-8A8F-192C3F783086}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2877,250 +3623,202 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="13" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3" t="s">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3137,276 +3835,689 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5F5349-C7FF-48E5-A257-C23989B6CB21}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A1" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="58.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3416,179 +4527,359 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38708302-D896-4645-A2C8-65EC48931677}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FB9E87-53A4-44D2-9574-F4950D9BAD9E}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" customWidth="1"/>
+    <col min="1" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="23" t="s">
+      <c r="G4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="5" spans="1:9" s="37" customFormat="1" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3597,48 +4888,51 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="56"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>4</v>
+      <c r="A5" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3646,51 +4940,103 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224A15DC-D99E-4903-A03A-56DCD0154BD6}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E5" s="2">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
